--- a/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/2024-10-15-AUC.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/2024-10-15-AUC.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/11-excel-math/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3FE63D-D2BB-2441-8E91-E600ED786BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDFB18-DB71-5640-9DF1-DCB0C7E7735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
+    <workbookView xWindow="240" yWindow="2160" windowWidth="28740" windowHeight="14880" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="AUC" sheetId="1" r:id="rId1"/>
+    <sheet name="Equation" sheetId="2" r:id="rId1"/>
+    <sheet name="AUC" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_56F9DC9755BA473782653E2940F9FormId">"wgLCIiw4e0SgI9CoZtHUJp3jilLXtopAuACrFZSZv1JUOTRHVjcwVlFKMzBEMVU2NksxNk5HOFUzNy4u"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{c826aa46-f6d5-4b75-a178-cdc76655ddb8}"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,19 +42,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Time (hours)</t>
   </si>
   <si>
     <t>Drug Concentration (mg/L)</t>
   </si>
+  <si>
+    <t>Tube #</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Absorbance</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>y-intercept</t>
+  </si>
+  <si>
+    <t>Potential Concentrations</t>
+  </si>
+  <si>
+    <t>Potential Absorbances</t>
+  </si>
+  <si>
+    <t>y = ax + b</t>
+  </si>
+  <si>
+    <t>x = (y-b)/a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,16 +104,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -93,14 +160,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +298,981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Equation!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absorbance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23793482064741908"/>
+                  <c:y val="9.6091061533974925E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Equation!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Equation!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BAE-B24B-97B7-A47CD6794AC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="100386879"/>
+        <c:axId val="99859359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="100386879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99859359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99859359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100386879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576904</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169154</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4A59B1-5FC3-F6CC-26F1-A5B1F1491BDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,14 +1591,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E2C5F-5D4F-7142-B104-427B256F52C3}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>SLOPE(C2:C6,B2:B6)</f>
+        <v>3.8752688172043019E-2</v>
+      </c>
+      <c r="B10" s="3">
+        <f>INTERCEPT(C2:C6,B2:B6)</f>
+        <v>1.583333333333331E-2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <f>(B13-$B$10)/$A$10</f>
+        <v>3.9782186459489455</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <f t="shared" ref="A14:A15" si="0">(B14-$B$10)/$A$10</f>
+        <v>2.4299389567147616</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>7.8489178690344055</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5165E3A-B658-1A4D-84D7-AE814F06F662}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/2024-10-15-AUC.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/2024-10-15-AUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/12-even-more-excel/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDFB18-DB71-5640-9DF1-DCB0C7E7735B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AFA42D-14BE-BF4C-B08E-13FBD1820707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="2160" windowWidth="28740" windowHeight="14880" xr2:uid="{C321DF7E-A6E8-A248-B7CB-8F4444CD1BE2}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Time (hours)</t>
   </si>
@@ -76,21 +76,19 @@
   <si>
     <t>x = (y-b)/a</t>
   </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -152,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -240,47 +238,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1595,7 +1627,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,127 +1636,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>2.5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>1.25</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>0.625</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f>SLOPE(C2:C6,B2:B6)</f>
         <v>3.8752688172043019E-2</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>INTERCEPT(C2:C6,B2:B6)</f>
         <v>1.583333333333331E-2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f>(B13-$B$10)/$A$10</f>
         <v>3.9782186459489455</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <f t="shared" ref="A14:A15" si="0">(B14-$B$10)/$A$10</f>
         <v>2.4299389567147616</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>7.8489178690344055</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0.32</v>
       </c>
     </row>
@@ -1737,81 +1769,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5165E3A-B658-1A4D-84D7-AE814F06F662}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="19">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="19">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="19">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="20">
         <v>0.5</v>
       </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
